--- a/backend/molgenis-emx2-io/src/test/resources/HealthDataCatalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/HealthDataCatalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D2C35-1FA7-1949-BDB7-2BFB6929F00B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080E8F3-89B4-3C4F-960A-1ACF0D6FA120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
@@ -1236,12 +1236,6 @@
     <t>lessCommonContent</t>
   </si>
   <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>Contributors to the catalogue such as universities, companies, medical centres and research institutes</t>
   </si>
   <si>
@@ -1258,6 +1252,12 @@
   </si>
   <si>
     <t>Collaborations of multiple institutions, addressing research questions using data sources and/or data banks</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827AF39-8A78-C843-9B70-9944F4620E8F}">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2757,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3196,7 +3196,7 @@
         <v>143</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,7 +3272,7 @@
         <v>143</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3564,7 +3564,7 @@
         <v>143</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>176</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -5259,14 +5259,14 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -5551,14 +5551,14 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -5641,14 +5641,14 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="11" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>370</v>

--- a/backend/molgenis-emx2-io/src/test/resources/HealthDataCatalogue.xlsx
+++ b/backend/molgenis-emx2-io/src/test/resources/HealthDataCatalogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/backend/molgenis-emx2-io/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080E8F3-89B4-3C4F-960A-1ACF0D6FA120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A11387-1BC8-B943-8C39-14289C8FEEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{581C931B-D7B9-8D4C-B6C4-1C49EA2AAD8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="411">
   <si>
     <t>tableName</t>
   </si>
@@ -1258,6 +1258,15 @@
   </si>
   <si>
     <t>Keywords</t>
+  </si>
+  <si>
+    <t>cdms</t>
+  </si>
+  <si>
+    <t>recordPromptDescription</t>
+  </si>
+  <si>
+    <t>Prompts</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827AF39-8A78-C843-9B70-9944F4620E8F}">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3338,10 +3347,12 @@
         <v>160</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -3357,27 +3368,19 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
@@ -3385,20 +3388,26 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="6"/>
+      <c r="J67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="L67" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3407,23 +3416,21 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
@@ -3431,18 +3438,18 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -3450,74 +3457,74 @@
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6" t="s">
-        <v>404</v>
-      </c>
+      <c r="A70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>149</v>
+        <v>408</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="B72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
@@ -3525,14 +3532,14 @@
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -3544,43 +3551,43 @@
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="A74" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -3592,96 +3599,100 @@
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="B76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7" t="s">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="B79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
@@ -3689,106 +3700,88 @@
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7" t="s">
+      <c r="K82" s="7"/>
+      <c r="L82" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10" t="s">
+      <c r="K83" s="10"/>
+      <c r="L83" s="10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="11">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="11">
-        <v>1</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3797,22 +3790,28 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
       <c r="F84" s="11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
+      <c r="I84" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="K84" s="11"/>
       <c r="L84" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3821,24 +3820,30 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="11">
+        <v>1</v>
+      </c>
       <c r="F85" s="11" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="I85" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J85" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="K85" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="L85" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3847,100 +3852,90 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10" t="s">
-        <v>191</v>
+      <c r="A87" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="11">
-        <v>1</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
-      <c r="I88" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>180</v>
-      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" s="11">
-        <v>1</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11" t="s">
-        <v>194</v>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3949,26 +3944,28 @@
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="11">
+        <v>1</v>
+      </c>
       <c r="F90" s="11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="I90" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J90" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K90" s="11"/>
       <c r="L90" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3977,22 +3974,28 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E91" s="11">
+        <v>1</v>
+      </c>
       <c r="F91" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
+      <c r="I91" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4001,24 +4004,26 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K92" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="L92" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4027,94 +4032,88 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10" t="s">
-        <v>204</v>
+      <c r="A94" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="11">
-        <v>1</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="11">
-        <v>1</v>
-      </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11" t="s">
-        <v>207</v>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4123,24 +4122,26 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12" t="s">
-        <v>208</v>
+      <c r="E97" s="11">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11" t="s">
-        <v>187</v>
-      </c>
+      <c r="I97" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" s="11"/>
       <c r="K97" s="11"/>
       <c r="L97" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4149,20 +4150,26 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E98" s="11">
+        <v>1</v>
+      </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
+      <c r="I98" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="K98" s="11"/>
       <c r="L98" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4171,20 +4178,24 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
+      <c r="J99" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -4193,10 +4204,10 @@
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -4206,81 +4217,71 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
       <c r="L100" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>214</v>
+      <c r="A101" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="11">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
-      <c r="I102" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="11" t="s">
-        <v>216</v>
-      </c>
+      <c r="K102" s="11"/>
       <c r="L102" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" s="11" t="s">
-        <v>219</v>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4289,22 +4290,26 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E104" s="11">
+        <v>1</v>
+      </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
+      <c r="I104" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J104" s="11"/>
       <c r="K104" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4313,22 +4318,24 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="I105" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4337,10 +4344,10 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -4349,10 +4356,10 @@
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4361,7 +4368,7 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>96</v>
@@ -4373,10 +4380,10 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4385,10 +4392,10 @@
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -4397,10 +4404,10 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4409,10 +4416,10 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -4421,10 +4428,10 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4433,10 +4440,10 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -4445,10 +4452,10 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4464,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>16</v>
@@ -4469,10 +4476,10 @@
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,10 +4488,10 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4493,9 +4500,11 @@
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="L112" s="11"/>
+        <v>238</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
@@ -4503,102 +4512,90 @@
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
+      <c r="K113" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="L113" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10" t="s">
-        <v>247</v>
-      </c>
+      <c r="A114" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L114" s="11"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="11">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="H115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
       <c r="K115" s="11"/>
       <c r="L115" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="11">
-        <v>1</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11" t="s">
-        <v>252</v>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4607,24 +4604,28 @@
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E117" s="11">
+        <v>1</v>
+      </c>
       <c r="F117" s="11" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
+      <c r="I117" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J117" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4633,24 +4634,26 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E118" s="11">
+        <v>1</v>
+      </c>
+      <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
+      <c r="I118" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J118" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4659,24 +4662,24 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>225</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="K119" s="11"/>
       <c r="L119" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4685,91 +4688,93 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="F120" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
       <c r="J120" s="11" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13" t="s">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="14">
-        <v>1</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="14">
-        <v>1</v>
-      </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
@@ -4777,16 +4782,22 @@
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="E124" s="14">
+        <v>1</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="I124" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J124" s="14"/>
       <c r="K124" s="14"/>
       <c r="L124" s="14"/>
@@ -4797,21 +4808,23 @@
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E125" s="14">
+        <v>1</v>
+      </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="I125" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
-      <c r="L125" s="14" t="s">
-        <v>265</v>
-      </c>
+      <c r="L125" s="14"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
@@ -4819,10 +4832,10 @@
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
@@ -4831,9 +4844,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
-      <c r="L126" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="L126" s="14"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
@@ -4841,22 +4852,20 @@
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E127" s="14"/>
-      <c r="F127" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4865,22 +4874,20 @@
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E128" s="14"/>
-      <c r="F128" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
       <c r="L128" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4889,20 +4896,22 @@
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4911,24 +4920,22 @@
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>126</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4937,10 +4944,10 @@
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
@@ -4950,81 +4957,75 @@
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="L132" s="13" t="s">
-        <v>278</v>
+      <c r="G132" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="14">
-        <v>1</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
-      <c r="I133" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" s="14">
-        <v>1</v>
-      </c>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14" t="s">
-        <v>279</v>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="L134" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5033,19 +5034,27 @@
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="E135" s="14">
+        <v>1</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="I135" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J135" s="14"/>
       <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
+      <c r="L135" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
@@ -5053,19 +5062,25 @@
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E136" s="14">
+        <v>1</v>
+      </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
+      <c r="L136" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
@@ -5073,15 +5088,13 @@
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E137" s="14"/>
-      <c r="F137" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
@@ -5095,23 +5108,19 @@
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E138" s="14"/>
-      <c r="F138" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
-      <c r="L138" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="L138" s="14"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
@@ -5119,13 +5128,15 @@
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
+      <c r="F139" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
@@ -5134,77 +5145,65 @@
       <c r="L139" s="14"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10" t="s">
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E141" s="11">
-        <v>1</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="11">
-        <v>1</v>
-      </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5213,20 +5212,28 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E143" s="11">
+        <v>1</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
+      <c r="I143" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="K143" s="11"/>
       <c r="L143" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5235,22 +5242,24 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11" t="s">
-        <v>290</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E144" s="11">
+        <v>1</v>
+      </c>
+      <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
+      <c r="I144" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
       <c r="L144" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -5259,22 +5268,20 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E145" s="11"/>
-      <c r="F145" s="11" t="s">
-        <v>407</v>
-      </c>
+      <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
       <c r="L145" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -5283,20 +5290,22 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="F146" s="11" t="s">
+        <v>290</v>
+      </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -5305,20 +5314,22 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
+      <c r="F147" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -5327,24 +5338,20 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E148" s="11"/>
-      <c r="F148" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="11" t="s">
-        <v>298</v>
-      </c>
+      <c r="H148" s="11"/>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -5353,100 +5360,88 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="11" t="s">
-        <v>301</v>
-      </c>
+      <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
-      <c r="L149" s="11"/>
+      <c r="L149" s="11" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10" t="s">
-        <v>303</v>
+      <c r="A150" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E151" s="11"/>
       <c r="F151" s="11" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="H151" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
       <c r="K151" s="11"/>
-      <c r="L151" s="11" t="s">
-        <v>304</v>
-      </c>
+      <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E152" s="11">
-        <v>1</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11" t="s">
-        <v>306</v>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -5455,24 +5450,28 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E153" s="11">
         <v>1</v>
       </c>
-      <c r="F153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J153" s="11"/>
+      <c r="J153" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="K153" s="11"/>
       <c r="L153" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -5481,22 +5480,28 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="11"/>
+      <c r="E154" s="11">
+        <v>1</v>
+      </c>
       <c r="F154" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G154" s="11"/>
+        <v>282</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
+      <c r="I154" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
       <c r="L154" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -5505,87 +5510,95 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11" t="s">
-        <v>310</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
       <c r="L155" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10" t="s">
-        <v>314</v>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>406</v>
+        <v>296</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="11" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="H157" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
+      <c r="L157" s="11" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
+      <c r="B158" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
@@ -5593,23 +5606,21 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="11" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
-      <c r="L159" s="11" t="s">
-        <v>317</v>
-      </c>
+      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
@@ -5617,23 +5628,19 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E160" s="11"/>
-      <c r="F160" s="11" t="s">
-        <v>319</v>
-      </c>
+      <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
-      <c r="L160" s="11" t="s">
-        <v>320</v>
-      </c>
+      <c r="L160" s="11"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
@@ -5641,21 +5648,23 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>32</v>
+        <v>315</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="11" t="s">
-        <v>407</v>
+        <v>316</v>
       </c>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
+      <c r="L161" s="11" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
@@ -5663,24 +5672,22 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
       <c r="L162" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -5689,21 +5696,21 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
+      <c r="F163" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
-      <c r="L163" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="L163" s="11"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
@@ -5711,19 +5718,25 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="F164" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
+      <c r="L164" s="11" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
@@ -5731,10 +5744,10 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>96</v>
+        <v>323</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
@@ -5744,7 +5757,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5753,10 +5766,10 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -5773,23 +5786,21 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E167" s="11"/>
-      <c r="F167" s="11" t="s">
-        <v>330</v>
-      </c>
+      <c r="F167" s="11"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="11" t="s">
-        <v>331</v>
-      </c>
+      <c r="H167" s="11"/>
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
+      <c r="L167" s="11" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
@@ -5797,15 +5808,13 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E168" s="11"/>
-      <c r="F168" s="11" t="s">
-        <v>333</v>
-      </c>
+      <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
@@ -5819,79 +5828,79 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
-      <c r="L169" s="11" t="s">
-        <v>337</v>
-      </c>
+      <c r="L169" s="11"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
-      <c r="L170" s="10" t="s">
-        <v>338</v>
-      </c>
+      <c r="A170" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
       <c r="L171" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B172" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -5902,65 +5911,53 @@
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E173" s="11">
-        <v>1</v>
-      </c>
+      <c r="E173" s="11"/>
       <c r="F173" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G173" s="11"/>
+        <v>313</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="H173" s="11"/>
       <c r="I173" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J173" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="J173" s="11"/>
       <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
+      <c r="L173" s="11" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E174" s="11">
-        <v>1</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
-      <c r="L174" s="11" t="s">
-        <v>341</v>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -5969,25 +5966,27 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="11"/>
+      <c r="F175" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J175" s="11"/>
+      <c r="J175" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="K175" s="11"/>
-      <c r="L175" s="11" t="s">
-        <v>343</v>
-      </c>
+      <c r="L175" s="11"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
@@ -5995,21 +5994,29 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E176" s="11">
+        <v>1</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="H176" s="11"/>
       <c r="I176" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
+      <c r="L176" s="11" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
@@ -6017,19 +6024,25 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E177" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E177" s="11">
+        <v>1</v>
+      </c>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
+      <c r="I177" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
-      <c r="L177" s="11"/>
+      <c r="L177" s="11" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
@@ -6037,16 +6050,18 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
+      <c r="I178" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
       <c r="L178" s="11"/>
@@ -6057,10 +6072,10 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
@@ -6069,81 +6084,67 @@
       <c r="I179" s="11"/>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
-      <c r="L179" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="L179" s="11"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="10" t="s">
-        <v>347</v>
-      </c>
+      <c r="A180" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E181" s="11">
-        <v>1</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
-      <c r="I181" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
+      <c r="L181" s="11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="11">
-        <v>1</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
@@ -6151,25 +6152,25 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E183" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E183" s="11">
+        <v>1</v>
+      </c>
       <c r="F183" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>301</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G183" s="11"/>
       <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
+      <c r="I183" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
-      <c r="L183" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="L183" s="11"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
@@ -6177,7 +6178,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>21</v>
@@ -6186,9 +6187,11 @@
         <v>1</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G184" s="11"/>
+        <v>282</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>348</v>
+      </c>
       <c r="H184" s="11"/>
       <c r="I184" s="11" t="b">
         <v>1</v>
@@ -6203,27 +6206,25 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E185" s="11">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E185" s="11"/>
       <c r="F185" s="11" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="H185" s="11"/>
-      <c r="I185" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I185" s="11"/>
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
+      <c r="L185" s="11" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
@@ -6231,7 +6232,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>21</v>
@@ -6240,20 +6241,16 @@
         <v>1</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>298</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G186" s="11"/>
       <c r="H186" s="11"/>
       <c r="I186" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
-      <c r="L186" s="11" t="s">
-        <v>352</v>
-      </c>
+      <c r="L186" s="11"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
@@ -6261,25 +6258,27 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E187" s="11"/>
+      <c r="E187" s="11">
+        <v>1</v>
+      </c>
       <c r="F187" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G187" s="11"/>
+        <v>282</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
-      <c r="L187" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="L187" s="11"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
@@ -6287,22 +6286,28 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E188" s="11"/>
+      <c r="E188" s="11">
+        <v>1</v>
+      </c>
       <c r="F188" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="G188" s="11"/>
+        <v>302</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
+      <c r="I188" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
       <c r="L188" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -6311,20 +6316,24 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
+      <c r="F189" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
+      <c r="I189" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -6333,20 +6342,22 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
+      <c r="F190" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -6355,7 +6366,7 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>23</v>
@@ -6368,83 +6379,69 @@
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
-      <c r="L192" s="10" t="s">
-        <v>364</v>
+      <c r="A192" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E193" s="10">
-        <v>1</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E194" s="11">
-        <v>1</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G194" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11" t="s">
-        <v>366</v>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -6453,26 +6450,26 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="10">
         <v>1</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
       <c r="I195" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
       <c r="L195" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6481,7 +6478,7 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>21</v>
@@ -6493,7 +6490,7 @@
         <v>282</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11" t="b">
@@ -6502,7 +6499,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6511,20 +6508,26 @@
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E197" s="11">
+        <v>1</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
+      <c r="I197" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6533,20 +6536,28 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E198" s="11">
+        <v>1</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
+      <c r="I198" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6555,10 +6566,10 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
@@ -6568,83 +6579,73 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="16" t="s">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B200" s="17"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="K200" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L200" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E201" s="18">
-        <v>1</v>
-      </c>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="K201" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L201" s="18"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
-        <v>370</v>
-      </c>
       <c r="B202" s="17"/>
-      <c r="C202" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E202" s="18">
-        <v>2</v>
-      </c>
+      <c r="C202" s="16"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="16"/>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
       <c r="I202" s="16"/>
-      <c r="J202" s="16"/>
-      <c r="K202" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L202" s="18" t="s">
-        <v>376</v>
+      <c r="J202" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="K202" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="L202" s="16" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6653,41 +6654,53 @@
       </c>
       <c r="B203" s="18"/>
       <c r="C203" s="18" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E203" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="E203" s="18">
+        <v>1</v>
+      </c>
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
+      <c r="I203" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="K203" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="L203" s="18"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B204" s="18"/>
+      <c r="B204" s="17"/>
       <c r="C204" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
+        <v>375</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204" s="18">
+        <v>2</v>
+      </c>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16"/>
+      <c r="K204" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204" s="18" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
@@ -6695,19 +6708,17 @@
       </c>
       <c r="B205" s="18"/>
       <c r="C205" s="18" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E205" s="18"/>
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
       <c r="I205" s="18"/>
-      <c r="J205" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="J205" s="18"/>
       <c r="K205" s="18"/>
       <c r="L205" s="18"/>
     </row>
@@ -6717,25 +6728,21 @@
       </c>
       <c r="B206" s="18"/>
       <c r="C206" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E206" s="18"/>
-      <c r="F206" s="18" t="s">
-        <v>370</v>
-      </c>
+      <c r="F206" s="18"/>
       <c r="G206" s="18"/>
       <c r="H206" s="18"/>
       <c r="I206" s="18"/>
       <c r="J206" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K206" s="18"/>
-      <c r="L206" s="18" t="s">
-        <v>382</v>
-      </c>
+      <c r="L206" s="18"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
@@ -6743,27 +6750,21 @@
       </c>
       <c r="B207" s="18"/>
       <c r="C207" s="18" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E207" s="18"/>
-      <c r="F207" s="18" t="s">
-        <v>370</v>
-      </c>
+      <c r="F207" s="18"/>
       <c r="G207" s="18"/>
-      <c r="H207" s="18" t="s">
-        <v>380</v>
-      </c>
+      <c r="H207" s="18"/>
       <c r="I207" s="18"/>
       <c r="J207" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K207" s="18"/>
-      <c r="L207" s="18" t="s">
-        <v>385</v>
-      </c>
+      <c r="L207" s="18"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
@@ -6771,91 +6772,105 @@
       </c>
       <c r="B208" s="18"/>
       <c r="C208" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E208" s="18">
-        <v>3</v>
-      </c>
-      <c r="F208" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18" t="s">
+        <v>370</v>
+      </c>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" s="18">
+        <v>3</v>
+      </c>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="K208" s="18" t="s">
+      <c r="K210" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L208" s="18"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C209" s="16"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16"/>
-      <c r="I209" s="16"/>
-      <c r="J209" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="K209" s="16"/>
-      <c r="L209" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16"/>
-      <c r="I210" s="16"/>
-      <c r="J210" s="16"/>
-      <c r="K210" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L210" s="16"/>
+      <c r="L210" s="18"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="16" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
+      <c r="D211" s="17"/>
       <c r="E211" s="16"/>
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
       <c r="H211" s="16"/>
       <c r="I211" s="16"/>
-      <c r="J211" s="16"/>
-      <c r="K211" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L211" s="16"/>
+      <c r="J211" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="K211" s="16"/>
+      <c r="L211" s="16" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="16" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="B212" s="16" t="s">
         <v>370</v>
@@ -6871,19 +6886,17 @@
       <c r="K212" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="L212" s="16" t="s">
-        <v>390</v>
-      </c>
+      <c r="L212" s="16"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="17" t="s">
-        <v>124</v>
+      <c r="A213" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="B213" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C213" s="16"/>
-      <c r="D213" s="17"/>
+      <c r="D213" s="16"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
@@ -6896,32 +6909,30 @@
       <c r="L213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="17" t="s">
-        <v>25</v>
+      <c r="A214" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C214" s="16"/>
-      <c r="D214" s="17"/>
+      <c r="D214" s="16"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
       <c r="H214" s="16"/>
       <c r="I214" s="16"/>
-      <c r="J214" s="16" t="s">
-        <v>391</v>
-      </c>
+      <c r="J214" s="16"/>
       <c r="K214" s="16" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="L214" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="17" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="B215" s="16" t="s">
         <v>370</v>
@@ -6941,7 +6952,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="17" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="B216" s="16" t="s">
         <v>370</v>
@@ -6953,21 +6964,25 @@
       <c r="G216" s="16"/>
       <c r="H216" s="16"/>
       <c r="I216" s="16"/>
-      <c r="J216" s="16"/>
+      <c r="J216" s="16" t="s">
+        <v>391</v>
+      </c>
       <c r="K216" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L216" s="16"/>
+        <v>392</v>
+      </c>
+      <c r="L216" s="16" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="B217" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
+      <c r="D217" s="17"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
@@ -6980,14 +6995,14 @@
       <c r="L217" s="16"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="16" t="s">
-        <v>22</v>
+      <c r="A218" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="B218" s="16" t="s">
         <v>370</v>
       </c>
       <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
+      <c r="D218" s="17"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
@@ -7000,8 +7015,8 @@
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="16" t="s">
-        <v>333</v>
+      <c r="A219" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>370</v>
@@ -7021,7 +7036,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="16" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="B220" s="16" t="s">
         <v>370</v>
@@ -7041,7 +7056,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>370</v>
@@ -7057,13 +7072,11 @@
       <c r="K221" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="L221" s="16" t="s">
-        <v>394</v>
-      </c>
+      <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>370</v>
@@ -7075,9 +7088,7 @@
       <c r="G222" s="16"/>
       <c r="H222" s="16"/>
       <c r="I222" s="16"/>
-      <c r="J222" s="16" t="s">
-        <v>395</v>
-      </c>
+      <c r="J222" s="16"/>
       <c r="K222" s="16" t="s">
         <v>372</v>
       </c>
@@ -7085,25 +7096,29 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
-      <c r="I223" s="18"/>
-      <c r="J223" s="18"/>
-      <c r="K223" s="18"/>
-      <c r="L223" s="18"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="16"/>
+      <c r="J223" s="16"/>
+      <c r="K223" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="L223" s="16" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>370</v>
@@ -7115,66 +7130,94 @@
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
-      <c r="J224" s="16"/>
-      <c r="K224" s="16"/>
+      <c r="J224" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="K224" s="16" t="s">
+        <v>372</v>
+      </c>
       <c r="L224" s="16"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" s="17" t="s">
-        <v>78</v>
+      <c r="A225" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C225" s="16"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="16"/>
-      <c r="G225" s="16"/>
-      <c r="H225" s="16"/>
-      <c r="I225" s="16"/>
-      <c r="J225" s="16"/>
-      <c r="K225" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L225" s="16"/>
-    </row>
-    <row r="226" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C225" s="18"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="18"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="18"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="18"/>
+      <c r="K225" s="18"/>
+      <c r="L225" s="18"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C226" s="18"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="18"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="18"/>
+      <c r="L226" s="18"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C227" s="16"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16"/>
+      <c r="K227" s="16"/>
+      <c r="L227" s="16"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C228" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D228" t="s">
-        <v>23</v>
-      </c>
+      <c r="B228" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C228" s="16"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+      <c r="I228" s="16"/>
+      <c r="J228" s="16"/>
+      <c r="K228" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="L228" s="16"/>
     </row>
     <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D229" t="s">
-        <v>23</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -7182,9 +7225,39 @@
         <v>78</v>
       </c>
       <c r="C230" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D232" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C233" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D233" t="s">
         <v>23</v>
       </c>
     </row>
